--- a/tasks/task02/logic.xlsx
+++ b/tasks/task02/logic.xlsx
@@ -4,16 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="2640" yWindow="0" windowWidth="13290" windowHeight="10845" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="9752" sheetId="1" r:id="rId1"/>
     <sheet name="11231" sheetId="3" r:id="rId2"/>
     <sheet name="13348" sheetId="5" r:id="rId3"/>
+    <sheet name="14688" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'11231'!$E$1:$E$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'13348'!$F$1:$F$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'14688'!$E$1:$E$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'9752'!$E$1:$E$10</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="9">
   <si>
     <t>F</t>
   </si>
@@ -50,6 +52,9 @@
   </si>
   <si>
     <t>W</t>
+  </si>
+  <si>
+    <t>(x ∨ y) → (z ≡ x)</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1023,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -1421,4 +1426,295 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AA14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="27" width="9.140625" style="4"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="b">
+        <f>OR(NOT(F3),G3)</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="b">
+        <f>OR(B3,C3)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="b">
+        <f>D3=B3</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="b">
+        <f t="shared" ref="E4:E10" si="0">OR(NOT(F4),G4)</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="b">
+        <f t="shared" ref="F4:F10" si="1">OR(B4,C4)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="b">
+        <f t="shared" ref="G4:G10" si="2">D4=B4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="5" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="5" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="5" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="E1:E10">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="F"/>
+        <filter val="ЛОЖЬ"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>